--- a/4 External Data/ISO-NE Unmet Demand/Unmet_Demand_Curve.xlsx
+++ b/4 External Data/ISO-NE Unmet Demand/Unmet_Demand_Curve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirgazar/Documents/GitHub/EPA_Debarbonization/Unmet Demand/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirgazar/Documents/GitHub/Decarbonization-Tradeoffs/4 External Data/ISO-NE Unmet Demand/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3613F0D-2F8E-4F42-8082-7F0EE2EB2B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A54D0E2-03A1-0A4E-B4B4-E3DBE1AA44BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15760" yWindow="3780" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{94212E74-B124-6540-B2AF-4947301EAC3C}"/>
+    <workbookView xWindow="2600" yWindow="1260" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{94212E74-B124-6540-B2AF-4947301EAC3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Prep" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1222,7 +1221,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>ISO-NE pay-for-performance starting June 2025 $9,337/MWh   </c:v>
+            <c:v>ISO-NE current pay-for-performance rate</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1258,10 +1257,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>9337</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9337</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1581,6 +1580,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2803,15 +2803,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>204470</xdr:colOff>
+      <xdr:colOff>265187</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
+      <xdr:rowOff>76341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>213117</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
+      <xdr:rowOff>106821</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2901,6 +2901,55 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0677</cdr:x>
+      <cdr:y>0.78238</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.14809</cdr:x>
+      <cdr:y>0.83439</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA47DD84-0361-964B-68A0-DBE86CDBAAFB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="443180" y="3349116"/>
+          <a:ext cx="526215" cy="222630"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>3,500</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5518,8 +5567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7356643C-8782-9F4C-9C11-DCF0D348C770}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5581,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>9337</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -5595,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9337</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
